--- a/registros.xlsx
+++ b/registros.xlsx
@@ -3674,10 +3674,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-$ * #.##0,00_-;-$ * #.##0,00_-;_-$ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-$ * #.##0,00_-;-$ * #.##0,00_-;_-$ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="#.##0,00_-;#.##0,00_-;&quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -3751,7 +3752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -3760,6 +3761,9 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4084,101 +4088,101 @@
     <col min="27" max="27" width="27.7109375" style="2" customWidth="1"/>
     <col min="28" max="29" width="22.7109375" style="2" customWidth="1"/>
     <col min="30" max="30" width="15.7109375" style="2" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" style="2" customWidth="1"/>
+    <col min="31" max="31" width="15.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="75" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4273,7 +4277,7 @@
       <c r="AD2" s="2">
         <v>763257</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4368,7 +4372,7 @@
       <c r="AD3" s="2">
         <v>721055</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AE3" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4463,7 +4467,7 @@
       <c r="AD4" s="2">
         <v>553159</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AE4" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4558,7 +4562,7 @@
       <c r="AD5" s="2">
         <v>1140699</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AE5" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4653,7 +4657,7 @@
       <c r="AD6" s="2">
         <v>678545</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AE6" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4748,7 +4752,7 @@
       <c r="AD7" s="2">
         <v>764990</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AE7" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4843,7 +4847,7 @@
       <c r="AD8" s="2">
         <v>1348070</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AE8" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4938,7 +4942,7 @@
       <c r="AD9" s="2">
         <v>763257</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AE9" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5033,7 +5037,7 @@
       <c r="AD10" s="2">
         <v>745294</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AE10" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5128,7 +5132,7 @@
       <c r="AD11" s="2">
         <v>826945</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AE11" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5223,7 +5227,7 @@
       <c r="AD12" s="2">
         <v>1204092</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AE12" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5318,7 +5322,7 @@
       <c r="AD13" s="2">
         <v>730276</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AE13" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5413,7 +5417,7 @@
       <c r="AD14" s="2">
         <v>768191</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="AE14" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5508,7 +5512,7 @@
       <c r="AD15" s="2">
         <v>1289231</v>
       </c>
-      <c r="AE15" s="2">
+      <c r="AE15" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5603,7 +5607,7 @@
       <c r="AD16" s="2">
         <v>1099174</v>
       </c>
-      <c r="AE16" s="2">
+      <c r="AE16" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5698,7 +5702,7 @@
       <c r="AD17" s="2">
         <v>635762</v>
       </c>
-      <c r="AE17" s="2">
+      <c r="AE17" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5793,7 +5797,7 @@
       <c r="AD18" s="2">
         <v>763257</v>
       </c>
-      <c r="AE18" s="2">
+      <c r="AE18" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5888,7 +5892,7 @@
       <c r="AD19" s="2">
         <v>946964</v>
       </c>
-      <c r="AE19" s="2">
+      <c r="AE19" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5983,7 +5987,7 @@
       <c r="AD20" s="2">
         <v>10</v>
       </c>
-      <c r="AE20" s="2">
+      <c r="AE20" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6078,7 +6082,7 @@
       <c r="AD21" s="2">
         <v>449520</v>
       </c>
-      <c r="AE21" s="2">
+      <c r="AE21" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6173,7 +6177,7 @@
       <c r="AD22" s="2">
         <v>1284044</v>
       </c>
-      <c r="AE22" s="2">
+      <c r="AE22" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6268,7 +6272,7 @@
       <c r="AD23" s="2">
         <v>1099174</v>
       </c>
-      <c r="AE23" s="2">
+      <c r="AE23" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6363,7 +6367,7 @@
       <c r="AD24" s="2">
         <v>763257</v>
       </c>
-      <c r="AE24" s="2">
+      <c r="AE24" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6458,7 +6462,7 @@
       <c r="AD25" s="2">
         <v>755444</v>
       </c>
-      <c r="AE25" s="2">
+      <c r="AE25" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6553,7 +6557,7 @@
       <c r="AD26" s="2">
         <v>1099174</v>
       </c>
-      <c r="AE26" s="2">
+      <c r="AE26" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6648,7 +6652,7 @@
       <c r="AD27" s="2">
         <v>1257971</v>
       </c>
-      <c r="AE27" s="2">
+      <c r="AE27" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6743,7 +6747,7 @@
       <c r="AD28" s="2">
         <v>763257</v>
       </c>
-      <c r="AE28" s="2">
+      <c r="AE28" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6838,7 +6842,7 @@
       <c r="AD29" s="2">
         <v>553159</v>
       </c>
-      <c r="AE29" s="2">
+      <c r="AE29" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6933,7 +6937,7 @@
       <c r="AD30" s="2">
         <v>1225864</v>
       </c>
-      <c r="AE30" s="2">
+      <c r="AE30" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7028,7 +7032,7 @@
       <c r="AD31" s="2">
         <v>1292966</v>
       </c>
-      <c r="AE31" s="2">
+      <c r="AE31" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7123,7 +7127,7 @@
       <c r="AD32" s="2">
         <v>763257</v>
       </c>
-      <c r="AE32" s="2">
+      <c r="AE32" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7218,7 +7222,7 @@
       <c r="AD33" s="2">
         <v>763257</v>
       </c>
-      <c r="AE33" s="2">
+      <c r="AE33" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7313,7 +7317,7 @@
       <c r="AD34" s="2">
         <v>579550</v>
       </c>
-      <c r="AE34" s="2">
+      <c r="AE34" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7408,7 +7412,7 @@
       <c r="AD35" s="2">
         <v>971506</v>
       </c>
-      <c r="AE35" s="2">
+      <c r="AE35" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7503,7 +7507,7 @@
       <c r="AD36" s="2">
         <v>908834</v>
       </c>
-      <c r="AE36" s="2">
+      <c r="AE36" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7598,7 +7602,7 @@
       <c r="AD37" s="2">
         <v>678545</v>
       </c>
-      <c r="AE37" s="2">
+      <c r="AE37" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7693,7 +7697,7 @@
       <c r="AD38" s="2">
         <v>1005743</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AE38" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7788,7 +7792,7 @@
       <c r="AD39" s="2">
         <v>694168</v>
       </c>
-      <c r="AE39" s="2">
+      <c r="AE39" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7883,7 +7887,7 @@
       <c r="AD40" s="2">
         <v>694168</v>
       </c>
-      <c r="AE40" s="2">
+      <c r="AE40" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7978,7 +7982,7 @@
       <c r="AD41" s="2">
         <v>1099174</v>
       </c>
-      <c r="AE41" s="2">
+      <c r="AE41" s="5">
         <v>0</v>
       </c>
     </row>
@@ -8073,7 +8077,7 @@
       <c r="AD42" s="2">
         <v>763257</v>
       </c>
-      <c r="AE42" s="2">
+      <c r="AE42" s="5">
         <v>0</v>
       </c>
     </row>
@@ -8168,7 +8172,7 @@
       <c r="AD43" s="2">
         <v>905233</v>
       </c>
-      <c r="AE43" s="2">
+      <c r="AE43" s="5">
         <v>0</v>
       </c>
     </row>
@@ -8263,7 +8267,7 @@
       <c r="AD44" s="2">
         <v>763257</v>
       </c>
-      <c r="AE44" s="2">
+      <c r="AE44" s="5">
         <v>0</v>
       </c>
     </row>
@@ -8358,7 +8362,7 @@
       <c r="AD45" s="2">
         <v>858905</v>
       </c>
-      <c r="AE45" s="2">
+      <c r="AE45" s="5">
         <v>0</v>
       </c>
     </row>
@@ -8453,7 +8457,7 @@
       <c r="AD46" s="2">
         <v>1141102</v>
       </c>
-      <c r="AE46" s="2">
+      <c r="AE46" s="5">
         <v>0</v>
       </c>
     </row>
@@ -8548,7 +8552,7 @@
       <c r="AD47" s="2">
         <v>1079097</v>
       </c>
-      <c r="AE47" s="2">
+      <c r="AE47" s="5">
         <v>0</v>
       </c>
     </row>
@@ -8643,7 +8647,7 @@
       <c r="AD48" s="2">
         <v>1136894</v>
       </c>
-      <c r="AE48" s="2">
+      <c r="AE48" s="5">
         <v>0</v>
       </c>
     </row>
@@ -8738,7 +8742,7 @@
       <c r="AD49" s="2">
         <v>553159</v>
       </c>
-      <c r="AE49" s="2">
+      <c r="AE49" s="5">
         <v>0</v>
       </c>
     </row>
@@ -8833,7 +8837,7 @@
       <c r="AD50" s="2">
         <v>553159</v>
       </c>
-      <c r="AE50" s="2">
+      <c r="AE50" s="5">
         <v>0</v>
       </c>
     </row>
@@ -8928,7 +8932,7 @@
       <c r="AD51" s="2">
         <v>1275966</v>
       </c>
-      <c r="AE51" s="2">
+      <c r="AE51" s="5">
         <v>0</v>
       </c>
     </row>
@@ -9023,7 +9027,7 @@
       <c r="AD52" s="2">
         <v>2076561</v>
       </c>
-      <c r="AE52" s="2">
+      <c r="AE52" s="5">
         <v>0</v>
       </c>
     </row>
@@ -9118,7 +9122,7 @@
       <c r="AD53" s="2">
         <v>457211</v>
       </c>
-      <c r="AE53" s="2">
+      <c r="AE53" s="5">
         <v>0</v>
       </c>
     </row>
@@ -9213,7 +9217,7 @@
       <c r="AD54" s="2">
         <v>490667</v>
       </c>
-      <c r="AE54" s="2">
+      <c r="AE54" s="5">
         <v>0</v>
       </c>
     </row>
@@ -9308,7 +9312,7 @@
       <c r="AD55" s="2">
         <v>620338</v>
       </c>
-      <c r="AE55" s="2">
+      <c r="AE55" s="5">
         <v>0</v>
       </c>
     </row>
@@ -9403,7 +9407,7 @@
       <c r="AD56" s="2">
         <v>780529</v>
       </c>
-      <c r="AE56" s="2">
+      <c r="AE56" s="5">
         <v>0</v>
       </c>
     </row>
@@ -9498,7 +9502,7 @@
       <c r="AD57" s="2">
         <v>634952</v>
       </c>
-      <c r="AE57" s="2">
+      <c r="AE57" s="5">
         <v>0</v>
       </c>
     </row>
@@ -9593,7 +9597,7 @@
       <c r="AD58" s="2">
         <v>1572970</v>
       </c>
-      <c r="AE58" s="2">
+      <c r="AE58" s="5">
         <v>0</v>
       </c>
     </row>
@@ -9688,7 +9692,7 @@
       <c r="AD59" s="2">
         <v>752557</v>
       </c>
-      <c r="AE59" s="2">
+      <c r="AE59" s="5">
         <v>0</v>
       </c>
     </row>
@@ -9783,7 +9787,7 @@
       <c r="AD60" s="2">
         <v>694168</v>
       </c>
-      <c r="AE60" s="2">
+      <c r="AE60" s="5">
         <v>0</v>
       </c>
     </row>
@@ -9878,7 +9882,7 @@
       <c r="AD61" s="2">
         <v>849618</v>
       </c>
-      <c r="AE61" s="2">
+      <c r="AE61" s="5">
         <v>0</v>
       </c>
     </row>
@@ -9973,7 +9977,7 @@
       <c r="AD62" s="2">
         <v>553159</v>
       </c>
-      <c r="AE62" s="2">
+      <c r="AE62" s="5">
         <v>0</v>
       </c>
     </row>
@@ -10068,7 +10072,7 @@
       <c r="AD63" s="2">
         <v>694168</v>
       </c>
-      <c r="AE63" s="2">
+      <c r="AE63" s="5">
         <v>0</v>
       </c>
     </row>
@@ -10163,7 +10167,7 @@
       <c r="AD64" s="2">
         <v>1132729</v>
       </c>
-      <c r="AE64" s="2">
+      <c r="AE64" s="5">
         <v>0</v>
       </c>
     </row>
@@ -10258,7 +10262,7 @@
       <c r="AD65" s="2">
         <v>768191</v>
       </c>
-      <c r="AE65" s="2">
+      <c r="AE65" s="5">
         <v>0</v>
       </c>
     </row>
@@ -10353,7 +10357,7 @@
       <c r="AD66" s="2">
         <v>1799078</v>
       </c>
-      <c r="AE66" s="2">
+      <c r="AE66" s="5">
         <v>0</v>
       </c>
     </row>
@@ -10448,7 +10452,7 @@
       <c r="AD67" s="2">
         <v>820792</v>
       </c>
-      <c r="AE67" s="2">
+      <c r="AE67" s="5">
         <v>0</v>
       </c>
     </row>
@@ -10543,7 +10547,7 @@
       <c r="AD68" s="2">
         <v>1665862</v>
       </c>
-      <c r="AE68" s="2">
+      <c r="AE68" s="5">
         <v>0</v>
       </c>
     </row>
@@ -10638,7 +10642,7 @@
       <c r="AD69" s="2">
         <v>410031</v>
       </c>
-      <c r="AE69" s="2">
+      <c r="AE69" s="5">
         <v>0</v>
       </c>
     </row>
@@ -10733,7 +10737,7 @@
       <c r="AD70" s="2">
         <v>908834</v>
       </c>
-      <c r="AE70" s="2">
+      <c r="AE70" s="5">
         <v>0</v>
       </c>
     </row>
@@ -10828,7 +10832,7 @@
       <c r="AD71" s="2">
         <v>1477020</v>
       </c>
-      <c r="AE71" s="2">
+      <c r="AE71" s="5">
         <v>0</v>
       </c>
     </row>
@@ -10923,7 +10927,7 @@
       <c r="AD72" s="2">
         <v>763257</v>
       </c>
-      <c r="AE72" s="2">
+      <c r="AE72" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11018,7 +11022,7 @@
       <c r="AD73" s="2">
         <v>763257</v>
       </c>
-      <c r="AE73" s="2">
+      <c r="AE73" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11113,7 +11117,7 @@
       <c r="AD74" s="2">
         <v>713257</v>
       </c>
-      <c r="AE74" s="2">
+      <c r="AE74" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11208,7 +11212,7 @@
       <c r="AD75" s="2">
         <v>1181388</v>
       </c>
-      <c r="AE75" s="2">
+      <c r="AE75" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11303,7 +11307,7 @@
       <c r="AD76" s="2">
         <v>1334116</v>
       </c>
-      <c r="AE76" s="2">
+      <c r="AE76" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11398,7 +11402,7 @@
       <c r="AD77" s="2">
         <v>694168</v>
       </c>
-      <c r="AE77" s="2">
+      <c r="AE77" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11493,7 +11497,7 @@
       <c r="AD78" s="2">
         <v>1245186</v>
       </c>
-      <c r="AE78" s="2">
+      <c r="AE78" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11588,7 +11592,7 @@
       <c r="AD79" s="2">
         <v>941343</v>
       </c>
-      <c r="AE79" s="2">
+      <c r="AE79" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11683,7 +11687,7 @@
       <c r="AD80" s="2">
         <v>981343</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AE80" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11778,7 +11782,7 @@
       <c r="AD81" s="2">
         <v>553159</v>
       </c>
-      <c r="AE81" s="2">
+      <c r="AE81" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11873,7 +11877,7 @@
       <c r="AD82" s="2">
         <v>763257</v>
       </c>
-      <c r="AE82" s="2">
+      <c r="AE82" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11968,7 +11972,7 @@
       <c r="AD83" s="2">
         <v>694168</v>
       </c>
-      <c r="AE83" s="2">
+      <c r="AE83" s="5">
         <v>0</v>
       </c>
     </row>
@@ -12063,7 +12067,7 @@
       <c r="AD84" s="2">
         <v>845471</v>
       </c>
-      <c r="AE84" s="2">
+      <c r="AE84" s="5">
         <v>0</v>
       </c>
     </row>
@@ -12158,7 +12162,7 @@
       <c r="AD85" s="2">
         <v>542527</v>
       </c>
-      <c r="AE85" s="2">
+      <c r="AE85" s="5">
         <v>0</v>
       </c>
     </row>
@@ -12253,7 +12257,7 @@
       <c r="AD86" s="2">
         <v>914854</v>
       </c>
-      <c r="AE86" s="2">
+      <c r="AE86" s="5">
         <v>0</v>
       </c>
     </row>
@@ -12348,7 +12352,7 @@
       <c r="AD87" s="2">
         <v>828724</v>
       </c>
-      <c r="AE87" s="2">
+      <c r="AE87" s="5">
         <v>0</v>
       </c>
     </row>
@@ -12443,7 +12447,7 @@
       <c r="AD88" s="2">
         <v>682451</v>
       </c>
-      <c r="AE88" s="2">
+      <c r="AE88" s="5">
         <v>0</v>
       </c>
     </row>
@@ -12538,7 +12542,7 @@
       <c r="AD89" s="2">
         <v>532392</v>
       </c>
-      <c r="AE89" s="2">
+      <c r="AE89" s="5">
         <v>0</v>
       </c>
     </row>
@@ -12633,7 +12637,7 @@
       <c r="AD90" s="2">
         <v>837281</v>
       </c>
-      <c r="AE90" s="2">
+      <c r="AE90" s="5">
         <v>0</v>
       </c>
     </row>
@@ -12728,7 +12732,7 @@
       <c r="AD91" s="2">
         <v>764991</v>
       </c>
-      <c r="AE91" s="2">
+      <c r="AE91" s="5">
         <v>0</v>
       </c>
     </row>
@@ -12823,7 +12827,7 @@
       <c r="AD92" s="2">
         <v>588686</v>
       </c>
-      <c r="AE92" s="2">
+      <c r="AE92" s="5">
         <v>0</v>
       </c>
     </row>
@@ -12918,7 +12922,7 @@
       <c r="AD93" s="2">
         <v>763257</v>
       </c>
-      <c r="AE93" s="2">
+      <c r="AE93" s="5">
         <v>0</v>
       </c>
     </row>
@@ -13013,7 +13017,7 @@
       <c r="AD94" s="2">
         <v>763257</v>
       </c>
-      <c r="AE94" s="2">
+      <c r="AE94" s="5">
         <v>0</v>
       </c>
     </row>
@@ -13108,7 +13112,7 @@
       <c r="AD95" s="2">
         <v>1033469</v>
       </c>
-      <c r="AE95" s="2">
+      <c r="AE95" s="5">
         <v>0</v>
       </c>
     </row>
@@ -13203,7 +13207,7 @@
       <c r="AD96" s="2">
         <v>943699</v>
       </c>
-      <c r="AE96" s="2">
+      <c r="AE96" s="5">
         <v>0</v>
       </c>
     </row>
@@ -13298,7 +13302,7 @@
       <c r="AD97" s="2">
         <v>1213375</v>
       </c>
-      <c r="AE97" s="2">
+      <c r="AE97" s="5">
         <v>0</v>
       </c>
     </row>
@@ -13393,7 +13397,7 @@
       <c r="AD98" s="2">
         <v>1099174</v>
       </c>
-      <c r="AE98" s="2">
+      <c r="AE98" s="5">
         <v>0</v>
       </c>
     </row>
@@ -13488,7 +13492,7 @@
       <c r="AD99" s="2">
         <v>943632</v>
       </c>
-      <c r="AE99" s="2">
+      <c r="AE99" s="5">
         <v>0</v>
       </c>
     </row>
@@ -13583,7 +13587,7 @@
       <c r="AD100" s="2">
         <v>1192116</v>
       </c>
-      <c r="AE100" s="2">
+      <c r="AE100" s="5">
         <v>0</v>
       </c>
     </row>
@@ -13678,7 +13682,7 @@
       <c r="AD101" s="2">
         <v>981343</v>
       </c>
-      <c r="AE101" s="2">
+      <c r="AE101" s="5">
         <v>0</v>
       </c>
     </row>
@@ -13773,7 +13777,7 @@
       <c r="AD102" s="2">
         <v>1477675</v>
       </c>
-      <c r="AE102" s="2">
+      <c r="AE102" s="5">
         <v>0</v>
       </c>
     </row>
@@ -13868,7 +13872,7 @@
       <c r="AD103" s="2">
         <v>763256</v>
       </c>
-      <c r="AE103" s="2">
+      <c r="AE103" s="5">
         <v>0</v>
       </c>
     </row>
@@ -13963,7 +13967,7 @@
       <c r="AD104" s="2">
         <v>694168</v>
       </c>
-      <c r="AE104" s="2">
+      <c r="AE104" s="5">
         <v>0</v>
       </c>
     </row>
@@ -14058,7 +14062,7 @@
       <c r="AD105" s="2">
         <v>793293</v>
       </c>
-      <c r="AE105" s="2">
+      <c r="AE105" s="5">
         <v>0</v>
       </c>
     </row>
@@ -14153,7 +14157,7 @@
       <c r="AD106" s="2">
         <v>976843</v>
       </c>
-      <c r="AE106" s="2">
+      <c r="AE106" s="5">
         <v>0</v>
       </c>
     </row>
@@ -14248,7 +14252,7 @@
       <c r="AD107" s="2">
         <v>718842</v>
       </c>
-      <c r="AE107" s="2">
+      <c r="AE107" s="5">
         <v>0</v>
       </c>
     </row>
@@ -14343,7 +14347,7 @@
       <c r="AD108" s="2">
         <v>763257</v>
       </c>
-      <c r="AE108" s="2">
+      <c r="AE108" s="5">
         <v>0</v>
       </c>
     </row>
@@ -14438,7 +14442,7 @@
       <c r="AD109" s="2">
         <v>985249</v>
       </c>
-      <c r="AE109" s="2">
+      <c r="AE109" s="5">
         <v>0</v>
       </c>
     </row>
@@ -14533,7 +14537,7 @@
       <c r="AD110" s="2">
         <v>1099174</v>
       </c>
-      <c r="AE110" s="2">
+      <c r="AE110" s="5">
         <v>0</v>
       </c>
     </row>
@@ -14628,7 +14632,7 @@
       <c r="AD111" s="2">
         <v>812224</v>
       </c>
-      <c r="AE111" s="2">
+      <c r="AE111" s="5">
         <v>0</v>
       </c>
     </row>
@@ -14723,7 +14727,7 @@
       <c r="AD112" s="2">
         <v>678545</v>
       </c>
-      <c r="AE112" s="2">
+      <c r="AE112" s="5">
         <v>0</v>
       </c>
     </row>
@@ -14818,7 +14822,7 @@
       <c r="AD113" s="2">
         <v>980766</v>
       </c>
-      <c r="AE113" s="2">
+      <c r="AE113" s="5">
         <v>0</v>
       </c>
     </row>
@@ -14913,7 +14917,7 @@
       <c r="AD114" s="2">
         <v>689668</v>
       </c>
-      <c r="AE114" s="2">
+      <c r="AE114" s="5">
         <v>0</v>
       </c>
     </row>
@@ -15008,7 +15012,7 @@
       <c r="AD115" s="2">
         <v>1240171</v>
       </c>
-      <c r="AE115" s="2">
+      <c r="AE115" s="5">
         <v>0</v>
       </c>
     </row>
@@ -15103,7 +15107,7 @@
       <c r="AD116" s="2">
         <v>1751835</v>
       </c>
-      <c r="AE116" s="2">
+      <c r="AE116" s="5">
         <v>0</v>
       </c>
     </row>
@@ -15198,7 +15202,7 @@
       <c r="AD117" s="2">
         <v>762070</v>
       </c>
-      <c r="AE117" s="2">
+      <c r="AE117" s="5">
         <v>0</v>
       </c>
     </row>
@@ -15293,7 +15297,7 @@
       <c r="AD118" s="2">
         <v>639668</v>
       </c>
-      <c r="AE118" s="2">
+      <c r="AE118" s="5">
         <v>0</v>
       </c>
     </row>
@@ -15388,7 +15392,7 @@
       <c r="AD119" s="2">
         <v>1383266</v>
       </c>
-      <c r="AE119" s="2">
+      <c r="AE119" s="5">
         <v>0</v>
       </c>
     </row>
@@ -15483,7 +15487,7 @@
       <c r="AD120" s="2">
         <v>740165</v>
       </c>
-      <c r="AE120" s="2">
+      <c r="AE120" s="5">
         <v>0</v>
       </c>
     </row>
@@ -15578,7 +15582,7 @@
       <c r="AD121" s="2">
         <v>1420306</v>
       </c>
-      <c r="AE121" s="2">
+      <c r="AE121" s="5">
         <v>0</v>
       </c>
     </row>
@@ -15673,7 +15677,7 @@
       <c r="AD122" s="2">
         <v>729035</v>
       </c>
-      <c r="AE122" s="2">
+      <c r="AE122" s="5">
         <v>0</v>
       </c>
     </row>
@@ -15768,7 +15772,7 @@
       <c r="AD123" s="2">
         <v>857651</v>
       </c>
-      <c r="AE123" s="2">
+      <c r="AE123" s="5">
         <v>0</v>
       </c>
     </row>
@@ -15863,7 +15867,7 @@
       <c r="AD124" s="2">
         <v>1333461</v>
       </c>
-      <c r="AE124" s="2">
+      <c r="AE124" s="5">
         <v>0</v>
       </c>
     </row>
@@ -15958,7 +15962,7 @@
       <c r="AD125" s="2">
         <v>931210</v>
       </c>
-      <c r="AE125" s="2">
+      <c r="AE125" s="5">
         <v>0</v>
       </c>
     </row>
@@ -16053,7 +16057,7 @@
       <c r="AD126" s="2">
         <v>550459</v>
       </c>
-      <c r="AE126" s="2">
+      <c r="AE126" s="5">
         <v>0</v>
       </c>
     </row>
@@ -16148,7 +16152,7 @@
       <c r="AD127" s="2">
         <v>1060365</v>
       </c>
-      <c r="AE127" s="2">
+      <c r="AE127" s="5">
         <v>0</v>
       </c>
     </row>
@@ -16243,7 +16247,7 @@
       <c r="AD128" s="2">
         <v>1100908</v>
       </c>
-      <c r="AE128" s="2">
+      <c r="AE128" s="5">
         <v>0</v>
       </c>
     </row>
@@ -16338,7 +16342,7 @@
       <c r="AD129" s="2">
         <v>694168</v>
       </c>
-      <c r="AE129" s="2">
+      <c r="AE129" s="5">
         <v>0</v>
       </c>
     </row>
@@ -16433,7 +16437,7 @@
       <c r="AD130" s="2">
         <v>694167</v>
       </c>
-      <c r="AE130" s="2">
+      <c r="AE130" s="5">
         <v>0</v>
       </c>
     </row>
@@ -16528,7 +16532,7 @@
       <c r="AD131" s="2">
         <v>996966</v>
       </c>
-      <c r="AE131" s="2">
+      <c r="AE131" s="5">
         <v>0</v>
       </c>
     </row>
@@ -16623,7 +16627,7 @@
       <c r="AD132" s="2">
         <v>985778</v>
       </c>
-      <c r="AE132" s="2">
+      <c r="AE132" s="5">
         <v>0</v>
       </c>
     </row>
@@ -16718,7 +16722,7 @@
       <c r="AD133" s="2">
         <v>977135</v>
       </c>
-      <c r="AE133" s="2">
+      <c r="AE133" s="5">
         <v>0</v>
       </c>
     </row>
@@ -16813,7 +16817,7 @@
       <c r="AD134" s="2">
         <v>270639</v>
       </c>
-      <c r="AE134" s="2">
+      <c r="AE134" s="5">
         <v>0</v>
       </c>
     </row>
@@ -16908,7 +16912,7 @@
       <c r="AD135" s="2">
         <v>996966</v>
       </c>
-      <c r="AE135" s="2">
+      <c r="AE135" s="5">
         <v>0</v>
       </c>
     </row>
@@ -17003,7 +17007,7 @@
       <c r="AD136" s="2">
         <v>1132230</v>
       </c>
-      <c r="AE136" s="2">
+      <c r="AE136" s="5">
         <v>0</v>
       </c>
     </row>
@@ -17098,7 +17102,7 @@
       <c r="AD137" s="2">
         <v>1049174</v>
       </c>
-      <c r="AE137" s="2">
+      <c r="AE137" s="5">
         <v>0</v>
       </c>
     </row>
@@ -17193,7 +17197,7 @@
       <c r="AD138" s="2">
         <v>517484</v>
       </c>
-      <c r="AE138" s="2">
+      <c r="AE138" s="5">
         <v>0</v>
       </c>
     </row>
@@ -17288,7 +17292,7 @@
       <c r="AD139" s="2">
         <v>1099174</v>
       </c>
-      <c r="AE139" s="2">
+      <c r="AE139" s="5">
         <v>0</v>
       </c>
     </row>
@@ -17383,7 +17387,7 @@
       <c r="AD140" s="2">
         <v>1099174</v>
       </c>
-      <c r="AE140" s="2">
+      <c r="AE140" s="5">
         <v>0</v>
       </c>
     </row>
@@ -17478,7 +17482,7 @@
       <c r="AD141" s="2">
         <v>1017976</v>
       </c>
-      <c r="AE141" s="2">
+      <c r="AE141" s="5">
         <v>0</v>
       </c>
     </row>
@@ -17573,7 +17577,7 @@
       <c r="AD142" s="2">
         <v>1656867</v>
       </c>
-      <c r="AE142" s="2">
+      <c r="AE142" s="5">
         <v>0</v>
       </c>
     </row>
@@ -17668,7 +17672,7 @@
       <c r="AD143" s="2">
         <v>1141103</v>
       </c>
-      <c r="AE143" s="2">
+      <c r="AE143" s="5">
         <v>0</v>
       </c>
     </row>
@@ -17763,7 +17767,7 @@
       <c r="AD144" s="2">
         <v>971505</v>
       </c>
-      <c r="AE144" s="2">
+      <c r="AE144" s="5">
         <v>0</v>
       </c>
     </row>
@@ -17858,7 +17862,7 @@
       <c r="AD145" s="2">
         <v>572831</v>
       </c>
-      <c r="AE145" s="2">
+      <c r="AE145" s="5">
         <v>0</v>
       </c>
     </row>
@@ -17953,7 +17957,7 @@
       <c r="AD146" s="2">
         <v>1271716</v>
       </c>
-      <c r="AE146" s="2">
+      <c r="AE146" s="5">
         <v>0</v>
       </c>
     </row>
@@ -18048,7 +18052,7 @@
       <c r="AD147" s="2">
         <v>946966</v>
       </c>
-      <c r="AE147" s="2">
+      <c r="AE147" s="5">
         <v>0</v>
       </c>
     </row>
@@ -18143,7 +18147,7 @@
       <c r="AD148" s="2">
         <v>829947</v>
       </c>
-      <c r="AE148" s="2">
+      <c r="AE148" s="5">
         <v>0</v>
       </c>
     </row>
@@ -18238,7 +18242,7 @@
       <c r="AD149" s="2">
         <v>880674</v>
       </c>
-      <c r="AE149" s="2">
+      <c r="AE149" s="5">
         <v>0</v>
       </c>
     </row>
@@ -18333,7 +18337,7 @@
       <c r="AD150" s="2">
         <v>899850</v>
       </c>
-      <c r="AE150" s="2">
+      <c r="AE150" s="5">
         <v>0</v>
       </c>
     </row>
@@ -18428,7 +18432,7 @@
       <c r="AD151" s="2">
         <v>792547</v>
       </c>
-      <c r="AE151" s="2">
+      <c r="AE151" s="5">
         <v>0</v>
       </c>
     </row>
@@ -18523,7 +18527,7 @@
       <c r="AD152" s="2">
         <v>694168</v>
       </c>
-      <c r="AE152" s="2">
+      <c r="AE152" s="5">
         <v>0</v>
       </c>
     </row>
@@ -18618,7 +18622,7 @@
       <c r="AD153" s="2">
         <v>1707596</v>
       </c>
-      <c r="AE153" s="2">
+      <c r="AE153" s="5">
         <v>0</v>
       </c>
     </row>
@@ -18713,7 +18717,7 @@
       <c r="AD154" s="2">
         <v>862413</v>
       </c>
-      <c r="AE154" s="2">
+      <c r="AE154" s="5">
         <v>0</v>
       </c>
     </row>
@@ -18808,7 +18812,7 @@
       <c r="AD155" s="2">
         <v>981343</v>
       </c>
-      <c r="AE155" s="2">
+      <c r="AE155" s="5">
         <v>0</v>
       </c>
     </row>
@@ -18903,7 +18907,7 @@
       <c r="AD156" s="2">
         <v>718841</v>
       </c>
-      <c r="AE156" s="2">
+      <c r="AE156" s="5">
         <v>0</v>
       </c>
     </row>
@@ -18998,7 +19002,7 @@
       <c r="AD157" s="2">
         <v>981343</v>
       </c>
-      <c r="AE157" s="2">
+      <c r="AE157" s="5">
         <v>0</v>
       </c>
     </row>
@@ -19093,7 +19097,7 @@
       <c r="AD158" s="2">
         <v>1834847</v>
       </c>
-      <c r="AE158" s="2">
+      <c r="AE158" s="5">
         <v>0</v>
       </c>
     </row>
@@ -19188,7 +19192,7 @@
       <c r="AD159" s="2">
         <v>531724</v>
       </c>
-      <c r="AE159" s="2">
+      <c r="AE159" s="5">
         <v>0</v>
       </c>
     </row>
@@ -19283,7 +19287,7 @@
       <c r="AD160" s="2">
         <v>3335198</v>
       </c>
-      <c r="AE160" s="2">
+      <c r="AE160" s="5">
         <v>0</v>
       </c>
     </row>
@@ -19378,7 +19382,7 @@
       <c r="AD161" s="2">
         <v>1520175</v>
       </c>
-      <c r="AE161" s="2">
+      <c r="AE161" s="5">
         <v>0</v>
       </c>
     </row>
@@ -19473,7 +19477,7 @@
       <c r="AD162" s="2">
         <v>1242116</v>
       </c>
-      <c r="AE162" s="2">
+      <c r="AE162" s="5">
         <v>0</v>
       </c>
     </row>
@@ -19568,7 +19572,7 @@
       <c r="AD163" s="2">
         <v>1609963</v>
       </c>
-      <c r="AE163" s="2">
+      <c r="AE163" s="5">
         <v>0</v>
       </c>
     </row>
@@ -19663,7 +19667,7 @@
       <c r="AD164" s="2">
         <v>1125008</v>
       </c>
-      <c r="AE164" s="2">
+      <c r="AE164" s="5">
         <v>0</v>
       </c>
     </row>
@@ -19758,7 +19762,7 @@
       <c r="AD165" s="2">
         <v>1023466</v>
       </c>
-      <c r="AE165" s="2">
+      <c r="AE165" s="5">
         <v>0</v>
       </c>
     </row>
@@ -19853,7 +19857,7 @@
       <c r="AD166" s="2">
         <v>680665</v>
       </c>
-      <c r="AE166" s="2">
+      <c r="AE166" s="5">
         <v>0</v>
       </c>
     </row>
@@ -19948,7 +19952,7 @@
       <c r="AD167" s="2">
         <v>1099174</v>
       </c>
-      <c r="AE167" s="2">
+      <c r="AE167" s="5">
         <v>0</v>
       </c>
     </row>
@@ -20043,7 +20047,7 @@
       <c r="AD168" s="2">
         <v>763257</v>
       </c>
-      <c r="AE168" s="2">
+      <c r="AE168" s="5">
         <v>0</v>
       </c>
     </row>
@@ -20138,7 +20142,7 @@
       <c r="AD169" s="2">
         <v>1477675</v>
       </c>
-      <c r="AE169" s="2">
+      <c r="AE169" s="5">
         <v>0</v>
       </c>
     </row>
@@ -20233,7 +20237,7 @@
       <c r="AD170" s="2">
         <v>972760</v>
       </c>
-      <c r="AE170" s="2">
+      <c r="AE170" s="5">
         <v>0</v>
       </c>
     </row>
@@ -20328,7 +20332,7 @@
       <c r="AD171" s="2">
         <v>867674</v>
       </c>
-      <c r="AE171" s="2">
+      <c r="AE171" s="5">
         <v>0</v>
       </c>
     </row>
@@ -20423,7 +20427,7 @@
       <c r="AD172" s="2">
         <v>763257</v>
       </c>
-      <c r="AE172" s="2">
+      <c r="AE172" s="5">
         <v>0</v>
       </c>
     </row>
@@ -20518,7 +20522,7 @@
       <c r="AD173" s="2">
         <v>1276167</v>
       </c>
-      <c r="AE173" s="2">
+      <c r="AE173" s="5">
         <v>0</v>
       </c>
     </row>
@@ -20613,7 +20617,7 @@
       <c r="AD174" s="2">
         <v>1308070</v>
       </c>
-      <c r="AE174" s="2">
+      <c r="AE174" s="5">
         <v>0</v>
       </c>
     </row>
@@ -20708,7 +20712,7 @@
       <c r="AD175" s="2">
         <v>1118751</v>
       </c>
-      <c r="AE175" s="2">
+      <c r="AE175" s="5">
         <v>0</v>
       </c>
     </row>
@@ -20803,7 +20807,7 @@
       <c r="AD176" s="2">
         <v>763257</v>
       </c>
-      <c r="AE176" s="2">
+      <c r="AE176" s="5">
         <v>0</v>
       </c>
     </row>
@@ -20898,7 +20902,7 @@
       <c r="AD177" s="2">
         <v>763257</v>
       </c>
-      <c r="AE177" s="2">
+      <c r="AE177" s="5">
         <v>0</v>
       </c>
     </row>
@@ -20993,7 +20997,7 @@
       <c r="AD178" s="2">
         <v>1085126</v>
       </c>
-      <c r="AE178" s="2">
+      <c r="AE178" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21088,7 +21092,7 @@
       <c r="AD179" s="2">
         <v>1292966</v>
       </c>
-      <c r="AE179" s="2">
+      <c r="AE179" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21183,7 +21187,7 @@
       <c r="AD180" s="2">
         <v>688768</v>
       </c>
-      <c r="AE180" s="2">
+      <c r="AE180" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21278,7 +21282,7 @@
       <c r="AD181" s="2">
         <v>742092</v>
       </c>
-      <c r="AE181" s="2">
+      <c r="AE181" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21373,7 +21377,7 @@
       <c r="AD182" s="2">
         <v>1866364</v>
       </c>
-      <c r="AE182" s="2">
+      <c r="AE182" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21468,7 +21472,7 @@
       <c r="AD183" s="2">
         <v>611845</v>
       </c>
-      <c r="AE183" s="2">
+      <c r="AE183" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21563,7 +21567,7 @@
       <c r="AD184" s="2">
         <v>776971</v>
       </c>
-      <c r="AE184" s="2">
+      <c r="AE184" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21658,7 +21662,7 @@
       <c r="AD185" s="2">
         <v>1420401</v>
       </c>
-      <c r="AE185" s="2">
+      <c r="AE185" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21753,7 +21757,7 @@
       <c r="AD186" s="2">
         <v>2328595</v>
       </c>
-      <c r="AE186" s="2">
+      <c r="AE186" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21848,7 +21852,7 @@
       <c r="AD187" s="2">
         <v>763257</v>
       </c>
-      <c r="AE187" s="2">
+      <c r="AE187" s="5">
         <v>0</v>
       </c>
     </row>
@@ -21943,7 +21947,7 @@
       <c r="AD188" s="2">
         <v>1582938</v>
       </c>
-      <c r="AE188" s="2">
+      <c r="AE188" s="5">
         <v>0</v>
       </c>
     </row>
@@ -22038,7 +22042,7 @@
       <c r="AD189" s="2">
         <v>1308295</v>
       </c>
-      <c r="AE189" s="2">
+      <c r="AE189" s="5">
         <v>0</v>
       </c>
     </row>
@@ -22133,7 +22137,7 @@
       <c r="AD190" s="2">
         <v>1226667</v>
       </c>
-      <c r="AE190" s="2">
+      <c r="AE190" s="5">
         <v>0</v>
       </c>
     </row>
@@ -22228,7 +22232,7 @@
       <c r="AD191" s="2">
         <v>1166462</v>
       </c>
-      <c r="AE191" s="2">
+      <c r="AE191" s="5">
         <v>0</v>
       </c>
     </row>
@@ -22323,7 +22327,7 @@
       <c r="AD192" s="2">
         <v>796811</v>
       </c>
-      <c r="AE192" s="2">
+      <c r="AE192" s="5">
         <v>0</v>
       </c>
     </row>
@@ -22418,7 +22422,7 @@
       <c r="AD193" s="2">
         <v>980623</v>
       </c>
-      <c r="AE193" s="2">
+      <c r="AE193" s="5">
         <v>0</v>
       </c>
     </row>
@@ -22513,7 +22517,7 @@
       <c r="AD194" s="2">
         <v>1000946</v>
       </c>
-      <c r="AE194" s="2">
+      <c r="AE194" s="5">
         <v>0</v>
       </c>
     </row>
@@ -22608,7 +22612,7 @@
       <c r="AD195" s="2">
         <v>996966</v>
       </c>
-      <c r="AE195" s="2">
+      <c r="AE195" s="5">
         <v>0</v>
       </c>
     </row>
@@ -22703,7 +22707,7 @@
       <c r="AD196" s="2">
         <v>850292</v>
       </c>
-      <c r="AE196" s="2">
+      <c r="AE196" s="5">
         <v>0</v>
       </c>
     </row>
@@ -22798,7 +22802,7 @@
       <c r="AD197" s="2">
         <v>1014148</v>
       </c>
-      <c r="AE197" s="2">
+      <c r="AE197" s="5">
         <v>0</v>
       </c>
     </row>
@@ -22893,7 +22897,7 @@
       <c r="AD198" s="2">
         <v>746004</v>
       </c>
-      <c r="AE198" s="2">
+      <c r="AE198" s="5">
         <v>0</v>
       </c>
     </row>
@@ -22988,7 +22992,7 @@
       <c r="AD199" s="2">
         <v>678545</v>
       </c>
-      <c r="AE199" s="2">
+      <c r="AE199" s="5">
         <v>0</v>
       </c>
     </row>
@@ -23083,7 +23087,7 @@
       <c r="AD200" s="2">
         <v>694168</v>
       </c>
-      <c r="AE200" s="2">
+      <c r="AE200" s="5">
         <v>0</v>
       </c>
     </row>
@@ -23178,7 +23182,7 @@
       <c r="AD201" s="2">
         <v>1527905</v>
       </c>
-      <c r="AE201" s="2">
+      <c r="AE201" s="5">
         <v>0</v>
       </c>
     </row>
@@ -23273,7 +23277,7 @@
       <c r="AD202" s="2">
         <v>1141003</v>
       </c>
-      <c r="AE202" s="2">
+      <c r="AE202" s="5">
         <v>0</v>
       </c>
     </row>
@@ -23368,7 +23372,7 @@
       <c r="AD203" s="2">
         <v>694167</v>
       </c>
-      <c r="AE203" s="2">
+      <c r="AE203" s="5">
         <v>0</v>
       </c>
     </row>
@@ -23463,7 +23467,7 @@
       <c r="AD204" s="2">
         <v>1149066</v>
       </c>
-      <c r="AE204" s="2">
+      <c r="AE204" s="5">
         <v>0</v>
       </c>
     </row>
@@ -23558,7 +23562,7 @@
       <c r="AD205" s="2">
         <v>1311073</v>
       </c>
-      <c r="AE205" s="2">
+      <c r="AE205" s="5">
         <v>0</v>
       </c>
     </row>
